--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -445,7 +445,7 @@
     </row>
     <row r="2">
       <c r="C2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
         <v>11</v>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -445,10 +445,10 @@
     </row>
     <row r="2">
       <c r="C2" t="n">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
